--- a/BacklogAppMobile.xlsx
+++ b/BacklogAppMobile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC2ADA-F1AE-46FF-9003-56D22312A038}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9FDF25-91E8-448F-AA45-29DF55F22D73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7D3DA80B-5612-4E5F-AB3D-7EFD15DED284}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D3DA80B-5612-4E5F-AB3D-7EFD15DED284}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>Critère</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>fait</t>
-  </si>
-  <si>
-    <t>L'utilisatuer doit cliquer sur un bouton "coter le restaurant"</t>
   </si>
 </sst>
 </file>
@@ -504,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59CF1BD-64EE-49C0-8BD7-1D7E9802E10A}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +619,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,59 +654,61 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +809,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,66 +860,35 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -929,27 +897,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E321ACF-BC34-45C6-A75C-6A091DC74519}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="134.140625" customWidth="1"/>
+    <col min="4" max="4" width="113" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,37 +927,27 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
